--- a/Correlacao_de_fundos/Relatorios/Copy of book.xlsx
+++ b/Correlacao_de_fundos/Relatorios/Copy of book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ana.carolina\São João Capital\Armory Front Office - General\Programs\ciencia_de_dados\Correlacao_de_fundos\Relatorios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ciencia_de_dados\Correlacao_de_fundos\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B178C1-0B8F-4B60-9DFB-A9135694CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B17F3-CD55-43F0-95C9-0142AC0D4F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-540" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-540" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1136,6 +1136,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="71" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" topLeftCell="J7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,20 +2207,20 @@
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
       <c r="Q9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2609,20 +2612,20 @@
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
       <c r="P18" s="1" t="s">
         <v>128</v>
       </c>
@@ -2926,20 +2929,20 @@
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
       <c r="S27" s="74" t="s">
         <v>155</v>
       </c>
@@ -3399,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="N30" sqref="N29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3413,7 @@
     <col min="6" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3429,12 +3432,17 @@
         <v>4</v>
       </c>
       <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>0.32390356063842768</v>
       </c>
       <c r="F2">
-        <f>E2/100 + 1</f>
+        <f t="shared" ref="F2:F34" si="0">E2/100 + 1</f>
         <v>1.0032390356063843</v>
       </c>
       <c r="G2">
@@ -3466,22 +3474,34 @@
         <v>1.006600022315979</v>
       </c>
       <c r="J2">
-        <f>PRODUCT(I2:I5)</f>
-        <v>1.0279882870865817</v>
+        <f>I2/F2</f>
+        <v>1.0033501355014194</v>
       </c>
       <c r="K2">
+        <f>H2-E2</f>
+        <v>0.33609867095947271</v>
+      </c>
+      <c r="L2">
+        <f>(H2/100)-(E2/100)</f>
+        <v>3.360986709594727E-3</v>
+      </c>
+      <c r="M2">
+        <f>J2-1</f>
+        <v>3.3501355014193823E-3</v>
+      </c>
+      <c r="P2">
         <v>0.1200079917907715</v>
       </c>
-      <c r="L2">
-        <f>((1+I2)/(1+F2)) -1</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q34" si="1">((1+I2)/(1+F2)) -1</f>
         <v>1.6777761664261703E-3</v>
       </c>
-      <c r="M2">
-        <f>(1+E2)/(1+H2)</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R33" si="2">(1+E2)/(1+H2)</f>
         <v>0.79753119329487432</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3498,7 +3518,7 @@
         <v>-1.1240303516387939</v>
       </c>
       <c r="F3">
-        <f>E3/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>0.98875969648361206</v>
       </c>
       <c r="G3">
@@ -3509,26 +3529,38 @@
         <v>0.7799983024597168</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="0">H3/100 + 1</f>
+        <f>H3/100 + 1</f>
         <v>1.0077999830245972</v>
       </c>
       <c r="J3">
-        <f>PRODUCT(I2:I17)</f>
-        <v>1.1099949401592093</v>
+        <f t="shared" ref="J3:J34" si="3">I3/F3</f>
+        <v>1.0192567381222144</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K34" si="4">H3-E3</f>
+        <v>1.9040286540985107</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L34" si="5">(H3/100)-(E3/100)</f>
+        <v>1.9040286540985107E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M34" si="6">J3-1</f>
+        <v>1.9256738122214401E-2</v>
+      </c>
+      <c r="P3">
         <v>0.60926675796508789</v>
       </c>
-      <c r="L3">
-        <f>((1+I3)/(1+F3)) -1</f>
+      <c r="Q3">
+        <f t="shared" si="1"/>
         <v>9.5739503242402435E-3</v>
       </c>
-      <c r="M3">
-        <f>(1+E3)/(1+H3)</f>
+      <c r="R3">
+        <f t="shared" si="2"/>
         <v>-6.9680039282846939E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -3545,29 +3577,45 @@
         <v>-0.84301233291625977</v>
       </c>
       <c r="F4">
-        <f>E4/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>0.9915698766708374</v>
       </c>
       <c r="H4">
         <v>0.6199955940246582</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I34" si="7">H4/100 + 1</f>
         <v>1.0061999559402466</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>1.0147544611969548</v>
+      </c>
       <c r="K4">
+        <f t="shared" si="4"/>
+        <v>1.463007926940918</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>1.463007926940918E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>1.4754461196954782E-2</v>
+      </c>
+      <c r="P4">
         <v>0.55594444274902344</v>
       </c>
-      <c r="L4">
-        <f>((1+I4)/(1+F4)) -1</f>
+      <c r="Q4">
+        <f t="shared" si="1"/>
         <v>7.3460034924133222E-3</v>
       </c>
-      <c r="M4">
-        <f>(1+E4)/(1+H4)</f>
+      <c r="R4">
+        <f t="shared" si="2"/>
         <v>9.690623089518767E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -3584,29 +3632,45 @@
         <v>2.045905590057373</v>
       </c>
       <c r="F5">
-        <f>E5/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0204590559005737</v>
       </c>
       <c r="H5">
         <v>0.70999860763549794</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.007099986076355</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.98690876449478993</v>
+      </c>
       <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-1.335906982421875</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>-1.335906982421875E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>-1.3091235505210075E-2</v>
+      </c>
+      <c r="P5">
         <v>0.53312778472900391</v>
       </c>
-      <c r="L5">
-        <f>((1+I5)/(1+F5)) -1</f>
+      <c r="Q5">
+        <f t="shared" si="1"/>
         <v>-6.6118983135069476E-3</v>
       </c>
-      <c r="M5">
-        <f>(1+E5)/(1+H5)</f>
+      <c r="R5">
+        <f t="shared" si="2"/>
         <v>1.781232789580514</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -3623,29 +3687,45 @@
         <v>1.620364189147949</v>
       </c>
       <c r="F6">
-        <f>E6/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0162036418914795</v>
       </c>
       <c r="H6">
         <v>0.60999393463134766</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0060999393463135</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.99005740372435602</v>
+      </c>
       <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-1.0103702545166013</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>-1.0103702545166012E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>-9.9425962756439779E-3</v>
+      </c>
+      <c r="P6">
         <v>0.50083398818969727</v>
       </c>
-      <c r="L6">
-        <f>((1+I6)/(1+F6)) -1</f>
+      <c r="Q6">
+        <f t="shared" si="1"/>
         <v>-5.0112510141522293E-3</v>
       </c>
-      <c r="M6">
-        <f>(1+E6)/(1+H6)</f>
+      <c r="R6">
+        <f t="shared" si="2"/>
         <v>1.6275615285146734</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -3662,29 +3742,45 @@
         <v>0.95789432525634755</v>
       </c>
       <c r="F7">
-        <f>E7/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0095789432525635</v>
       </c>
       <c r="H7">
         <v>0.66000223159790039</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.006600022315979</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.99704934323710515</v>
+      </c>
       <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-0.29789209365844715</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>-2.9789209365844709E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>-2.9506567628948543E-3</v>
+      </c>
+      <c r="P7">
         <v>0.59605836868286133</v>
       </c>
-      <c r="L7">
-        <f>((1+I7)/(1+F7)) -1</f>
+      <c r="Q7">
+        <f t="shared" si="1"/>
         <v>-1.4823607435709985E-3</v>
       </c>
-      <c r="M7">
-        <f>(1+E7)/(1+H7)</f>
+      <c r="R7">
+        <f t="shared" si="2"/>
         <v>1.179452827224033</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -3701,29 +3797,45 @@
         <v>1.2878298759460449</v>
       </c>
       <c r="F8">
-        <f>E8/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0128782987594604</v>
       </c>
       <c r="H8">
         <v>0.65000057220458984</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0065000057220459</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.99370280413231626</v>
+      </c>
       <c r="K8">
+        <f t="shared" si="4"/>
+        <v>-0.63782930374145508</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>-6.3782930374145508E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>-6.2971958676837358E-3</v>
+      </c>
+      <c r="P8">
         <v>0.4759669303894043</v>
       </c>
-      <c r="L8">
-        <f>((1+I8)/(1+F8)) -1</f>
+      <c r="Q8">
+        <f t="shared" si="1"/>
         <v>-3.1687425123244628E-3</v>
       </c>
-      <c r="M8">
-        <f>(1+E8)/(1+H8)</f>
+      <c r="R8">
+        <f t="shared" si="2"/>
         <v>1.3865630803322948</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -3740,29 +3852,45 @@
         <v>4.6312808990478523E-2</v>
       </c>
       <c r="F9">
-        <f>E9/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0004631280899048</v>
       </c>
       <c r="H9">
         <v>0.77000856399536133</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0077000856399536</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.0072336074632413</v>
+      </c>
       <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.72369575500488281</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>7.2369575500488281E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>7.2336074632413094E-3</v>
+      </c>
+      <c r="P9">
         <v>1.865816116333008</v>
       </c>
-      <c r="L9">
-        <f>((1+I9)/(1+F9)) -1</f>
+      <c r="Q9">
+        <f t="shared" si="1"/>
         <v>3.6176410594275232E-3</v>
       </c>
-      <c r="M9">
-        <f>(1+E9)/(1+H9)</f>
+      <c r="R9">
+        <f t="shared" si="2"/>
         <v>0.59113432006717714</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -3779,29 +3907,45 @@
         <v>1.245081424713135</v>
       </c>
       <c r="F10">
-        <f>E10/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0124508142471313</v>
       </c>
       <c r="H10">
         <v>0.53999423980712891</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0053999423980713</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.99303583764283587</v>
+      </c>
       <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-0.70508718490600608</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>-7.0508718490600603E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>-6.9641623571641276E-3</v>
+      </c>
+      <c r="P10">
         <v>0.74024200439453125</v>
       </c>
-      <c r="L10">
-        <f>((1+I10)/(1+F10)) -1</f>
+      <c r="Q10">
+        <f t="shared" si="1"/>
         <v>-3.5036244360078239E-3</v>
       </c>
-      <c r="M10">
-        <f>(1+E10)/(1+H10)</f>
+      <c r="R10">
+        <f t="shared" si="2"/>
         <v>1.4578505339047969</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -3818,29 +3962,45 @@
         <v>0.4086613655090332</v>
       </c>
       <c r="F11">
-        <f>E11/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0040866136550903</v>
       </c>
       <c r="H11">
         <v>0.62999725341796875</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0062999725341797</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>1.0022043505500311</v>
+      </c>
       <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.22133588790893555</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>2.2133588790893555E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>2.2043505500310978E-3</v>
+      </c>
+      <c r="P11">
         <v>1.67686939239502</v>
       </c>
-      <c r="L11">
-        <f>((1+I11)/(1+F11)) -1</f>
+      <c r="Q11">
+        <f t="shared" si="1"/>
         <v>1.1044227649685823E-3</v>
       </c>
-      <c r="M11">
-        <f>(1+E11)/(1+H11)</f>
+      <c r="R11">
+        <f t="shared" si="2"/>
         <v>0.86421088290497883</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -3857,29 +4017,45 @@
         <v>0.43785572052001948</v>
       </c>
       <c r="F12">
-        <f>E12/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0043785572052002</v>
       </c>
       <c r="H12">
         <v>0.6399989128112793</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0063999891281128</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1.0020126195530672</v>
+      </c>
       <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.20214319229125982</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>2.0214319229125985E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>2.0126195530671964E-3</v>
+      </c>
+      <c r="P12">
         <v>0.68563222885131836</v>
       </c>
-      <c r="L12">
-        <f>((1+I12)/(1+F12)) -1</f>
+      <c r="Q12">
+        <f t="shared" si="1"/>
         <v>1.0085080563480009E-3</v>
       </c>
-      <c r="M12">
-        <f>(1+E12)/(1+H12)</f>
+      <c r="R12">
+        <f t="shared" si="2"/>
         <v>0.87674187420969274</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -3896,29 +4072,45 @@
         <v>0.68371295928955078</v>
       </c>
       <c r="F13">
-        <f>E13/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0068371295928955</v>
       </c>
       <c r="H13">
         <v>0.54000616073608398</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0054000616073608</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.99857269071302945</v>
+      </c>
       <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-0.1437067985534668</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>-1.437067985534668E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>-1.4273092869705462E-3</v>
+      </c>
+      <c r="P13">
         <v>0.84660053253173828</v>
       </c>
-      <c r="L13">
-        <f>((1+I13)/(1+F13)) -1</f>
+      <c r="Q13">
+        <f t="shared" si="1"/>
         <v>-7.1608600635475472E-4</v>
       </c>
-      <c r="M13">
-        <f>(1+E13)/(1+H13)</f>
+      <c r="R13">
+        <f t="shared" si="2"/>
         <v>1.0933157296492753</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -3935,29 +4127,45 @@
         <v>0.38878917694091802</v>
       </c>
       <c r="F14">
-        <f>E14/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0038878917694092</v>
       </c>
       <c r="H14">
         <v>0.73000192642211914</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0073000192642212</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1.0033989128893646</v>
+      </c>
       <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.34121274948120112</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>3.4121274948120113E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>3.3989128893645582E-3</v>
+      </c>
+      <c r="P14">
         <v>0.53837299346923828</v>
       </c>
-      <c r="L14">
-        <f>((1+I14)/(1+F14)) -1</f>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>1.7027536863847281E-3</v>
       </c>
-      <c r="M14">
-        <f>(1+E14)/(1+H14)</f>
+      <c r="R14">
+        <f t="shared" si="2"/>
         <v>0.80276741645780947</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -3974,29 +4182,45 @@
         <v>6.660223007202147E-2</v>
       </c>
       <c r="F15">
-        <f>E15/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0006660223007202</v>
       </c>
       <c r="H15">
         <v>0.62999725341796875</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0062999725341797</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.0056302003944393</v>
+      </c>
       <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.56339502334594727</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>5.6339502334594727E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>5.6302003944392887E-3</v>
+      </c>
+      <c r="P15">
         <v>1.034665107727051</v>
       </c>
-      <c r="L15">
-        <f>((1+I15)/(1+F15)) -1</f>
+      <c r="Q15">
+        <f t="shared" si="1"/>
         <v>2.8160373448939957E-3</v>
       </c>
-      <c r="M15">
-        <f>(1+E15)/(1+H15)</f>
+      <c r="R15">
+        <f t="shared" si="2"/>
         <v>0.65435829896979603</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -4013,29 +4237,45 @@
         <v>1.9168853759765621</v>
       </c>
       <c r="F16">
-        <f>E16/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0191688537597656</v>
       </c>
       <c r="H16">
         <v>0.62999725341796875</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0062999725341797</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.98737316080832727</v>
+      </c>
       <c r="K16">
+        <f t="shared" si="4"/>
+        <v>-1.2868881225585933</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>-1.2868881225585934E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-1.2626839191672734E-2</v>
+      </c>
+      <c r="P16">
         <v>0.53000450134277344</v>
       </c>
-      <c r="L16">
-        <f>((1+I16)/(1+F16)) -1</f>
+      <c r="Q16">
+        <f t="shared" si="1"/>
         <v>-6.3733556515710443E-3</v>
       </c>
-      <c r="M16">
-        <f>(1+E16)/(1+H16)</f>
+      <c r="R16">
+        <f t="shared" si="2"/>
         <v>1.7895032460086027</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -4052,29 +4292,45 @@
         <v>0.60232877731323242</v>
       </c>
       <c r="F17">
-        <f>E17/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0060232877731323</v>
       </c>
       <c r="H17">
         <v>0.67000389099121094</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0067000389099121</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1.0006726992754589</v>
+      </c>
       <c r="K17">
+        <f t="shared" si="4"/>
+        <v>6.7675113677978516E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>6.7675113677978516E-4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>6.7269927545887676E-4</v>
+      </c>
+      <c r="P17">
         <v>0.53614377975463867</v>
       </c>
-      <c r="L17">
-        <f>((1+I17)/(1+F17)) -1</f>
+      <c r="Q17">
+        <f t="shared" si="1"/>
         <v>3.3735956152880497E-4</v>
       </c>
-      <c r="M17">
-        <f>(1+E17)/(1+H17)</f>
+      <c r="R17">
+        <f t="shared" si="2"/>
         <v>0.95947607425165293</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25</v>
       </c>
@@ -4091,29 +4347,45 @@
         <v>0.37580728530883789</v>
       </c>
       <c r="F18">
-        <f>E18/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0037580728530884</v>
       </c>
       <c r="H18">
         <v>0.66000223159790039</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.006600022315979</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.0028313091966599</v>
+      </c>
       <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.2841949462890625</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>2.841949462890625E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>2.8313091966598591E-3</v>
+      </c>
+      <c r="P18">
         <v>1.0132431983947749</v>
       </c>
-      <c r="L18">
-        <f>((1+I18)/(1+F18)) -1</f>
+      <c r="Q18">
+        <f t="shared" si="1"/>
         <v>1.4183096759001756E-3</v>
       </c>
-      <c r="M18">
-        <f>(1+E18)/(1+H18)</f>
+      <c r="R18">
+        <f t="shared" si="2"/>
         <v>0.82879845527948504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26</v>
       </c>
@@ -4130,29 +4402,45 @@
         <v>-1.22833251953125</v>
       </c>
       <c r="F19">
-        <f>E19/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>0.9877166748046875</v>
       </c>
       <c r="H19">
         <v>0.66000223159790039</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.006600022315979</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.019118182362392</v>
+      </c>
       <c r="K19">
+        <f t="shared" si="4"/>
+        <v>1.8883347511291504</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>1.8883347511291504E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>1.9118182362392044E-2</v>
+      </c>
+      <c r="P19">
         <v>-5.3937554359436044</v>
       </c>
-      <c r="L19">
-        <f>((1+I19)/(1+F19)) -1</f>
+      <c r="Q19">
+        <f t="shared" si="1"/>
         <v>9.5000196711370055E-3</v>
       </c>
-      <c r="M19">
-        <f>(1+E19)/(1+H19)</f>
+      <c r="R19">
+        <f t="shared" si="2"/>
         <v>-0.13754952564820322</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27</v>
       </c>
@@ -4169,29 +4457,45 @@
         <v>-6.9925904273986834</v>
       </c>
       <c r="F20">
-        <f>E20/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>0.93007409572601318</v>
       </c>
       <c r="H20">
         <v>2.6999950408935551</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0269999504089355</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.10421304617377</v>
+      </c>
       <c r="K20">
+        <f t="shared" si="4"/>
+        <v>9.6925854682922381</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>9.6925854682922377E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.10421304617377003</v>
+      </c>
+      <c r="P20">
         <v>0.13021230697631839</v>
       </c>
-      <c r="L20">
-        <f>((1+I20)/(1+F20)) -1</f>
+      <c r="Q20">
+        <f t="shared" si="1"/>
         <v>5.021872211929912E-2</v>
       </c>
-      <c r="M20">
-        <f>(1+E20)/(1+H20)</f>
+      <c r="R20">
+        <f t="shared" si="2"/>
         <v>-1.6196212052088217</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -4208,29 +4512,45 @@
         <v>2.4934291839599609</v>
       </c>
       <c r="F21">
-        <f>E21/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0249342918395996</v>
       </c>
       <c r="H21">
         <v>1.2099981307983401</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0120999813079834</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.98747791869800683</v>
+      </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>-1.2834310531616209</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>-1.2834310531616209E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>-1.2522081301993171E-2</v>
+      </c>
+      <c r="P21">
         <v>1.2632250785827639</v>
       </c>
-      <c r="L21">
-        <f>((1+I21)/(1+F21)) -1</f>
+      <c r="Q21">
+        <f t="shared" si="1"/>
         <v>-6.3381367895926077E-3</v>
       </c>
-      <c r="M21">
-        <f>(1+E21)/(1+H21)</f>
+      <c r="R21">
+        <f t="shared" si="2"/>
         <v>1.5807385242891561</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -4247,29 +4567,45 @@
         <v>3.1080961227416992</v>
       </c>
       <c r="F22">
-        <f>E22/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.031080961227417</v>
       </c>
       <c r="H22">
         <v>2.1600008010864258</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0216000080108643</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.99080484115886847</v>
+      </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>-0.94809532165527344</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>-9.4809532165527344E-3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>-9.1951588411315344E-3</v>
+      </c>
+      <c r="P22">
         <v>2.6508927345275879</v>
       </c>
-      <c r="L22">
-        <f>((1+I22)/(1+F22)) -1</f>
+      <c r="Q22">
+        <f t="shared" si="1"/>
         <v>-4.6679346601836702E-3</v>
       </c>
-      <c r="M22">
-        <f>(1+E22)/(1+H22)</f>
+      <c r="R22">
+        <f t="shared" si="2"/>
         <v>1.3000300890206462</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30</v>
       </c>
@@ -4286,29 +4622,45 @@
         <v>1.3629674911499019</v>
       </c>
       <c r="F23">
-        <f>E23/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.013629674911499</v>
       </c>
       <c r="H23">
         <v>0.78999996185302734</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0078999996185303</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.99434736824031023</v>
+      </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>-0.57296752929687456</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>-5.7296752929687448E-3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>-5.6526317596897746E-3</v>
+      </c>
+      <c r="P23">
         <v>1.5012025833129889</v>
       </c>
-      <c r="L23">
-        <f>((1+I23)/(1+F23)) -1</f>
+      <c r="Q23">
+        <f t="shared" si="1"/>
         <v>-2.8454463918349271E-3</v>
       </c>
-      <c r="M23">
-        <f>(1+E23)/(1+H23)</f>
+      <c r="R23">
+        <f t="shared" si="2"/>
         <v>1.3200935986075286</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -4325,29 +4677,45 @@
         <v>0.74869394302368164</v>
       </c>
       <c r="F24">
-        <f>E24/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0074869394302368</v>
       </c>
       <c r="H24">
         <v>1.380002498626709</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0138000249862671</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1.0062661711124519</v>
+      </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.63130855560302734</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>6.3130855560302734E-3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>6.2661711124518682E-3</v>
+      </c>
+      <c r="P24">
         <v>1.4261841773986821</v>
       </c>
-      <c r="L24">
-        <f>((1+I24)/(1+F24)) -1</f>
+      <c r="Q24">
+        <f t="shared" si="1"/>
         <v>3.1447704251674757E-3</v>
       </c>
-      <c r="M24">
-        <f>(1+E24)/(1+H24)</f>
+      <c r="R24">
+        <f t="shared" si="2"/>
         <v>0.73474458284505995</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -4364,29 +4732,45 @@
         <v>0.22617578506469729</v>
       </c>
       <c r="F25">
-        <f>E25/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.002261757850647</v>
       </c>
       <c r="H25">
         <v>0.62000751495361328</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0062000751495361</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1.0039294298800094</v>
+      </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.39383172988891602</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>3.9383172988891602E-3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>3.9294298800094385E-3</v>
+      </c>
+      <c r="P25">
         <v>1.1023402214050291</v>
       </c>
-      <c r="L25">
-        <f>((1+I25)/(1+F25)) -1</f>
+      <c r="Q25">
+        <f t="shared" si="1"/>
         <v>1.9669342849142346E-3</v>
       </c>
-      <c r="M25">
-        <f>(1+E25)/(1+H25)</f>
+      <c r="R25">
+        <f t="shared" si="2"/>
         <v>0.75689512162528894</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -4403,29 +4787,45 @@
         <v>0.19716024398803711</v>
       </c>
       <c r="F26">
-        <f>E26/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0019716024398804</v>
       </c>
       <c r="H26">
         <v>0.67000389099121094</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0067000389099121</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.0047191322174378</v>
+      </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0.47284364700317383</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>4.7284364700317383E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>4.7191322174378048E-3</v>
+      </c>
+      <c r="P26">
         <v>1.5625</v>
       </c>
-      <c r="L26">
-        <f>((1+I26)/(1+F26)) -1</f>
+      <c r="Q26">
+        <f t="shared" si="1"/>
         <v>2.3618898810897626E-3</v>
       </c>
-      <c r="M26">
-        <f>(1+E26)/(1+H26)</f>
+      <c r="R26">
+        <f t="shared" si="2"/>
         <v>0.71686075131087079</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>34</v>
       </c>
@@ -4442,29 +4842,45 @@
         <v>2.3804068565368648</v>
       </c>
       <c r="F27">
-        <f>E27/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0238040685653687</v>
       </c>
       <c r="H27">
         <v>0.78999996185302734</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0078999996185303</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.98446571034912533</v>
+      </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>-1.5904068946838374</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>-1.5904068946838375E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>-1.5534289650874666E-2</v>
+      </c>
+      <c r="P27">
         <v>1.453924179077148</v>
       </c>
-      <c r="L27">
-        <f>((1+I27)/(1+F27)) -1</f>
+      <c r="Q27">
+        <f t="shared" si="1"/>
         <v>-7.8585023095206763E-3</v>
       </c>
-      <c r="M27">
-        <f>(1+E27)/(1+H27)</f>
+      <c r="R27">
+        <f t="shared" si="2"/>
         <v>1.8884954908252798</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -4481,29 +4897,45 @@
         <v>1.6830325126647949</v>
       </c>
       <c r="F28">
-        <f>E28/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0168303251266479</v>
       </c>
       <c r="H28">
         <v>0.78999996185302734</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0078999996185303</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.99121748704042101</v>
+      </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>-0.89303255081176758</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>-8.9303255081176758E-3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>-8.7825129595789919E-3</v>
+      </c>
+      <c r="P28">
         <v>4.6159029006958008</v>
       </c>
-      <c r="L28">
-        <f>((1+I28)/(1+F28)) -1</f>
+      <c r="Q28">
+        <f t="shared" si="1"/>
         <v>-4.4279012452655975E-3</v>
       </c>
-      <c r="M28">
-        <f>(1+E28)/(1+H28)</f>
+      <c r="R28">
+        <f t="shared" si="2"/>
         <v>1.4989008770074446</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -4520,29 +4952,45 @@
         <v>0.55946111679077148</v>
       </c>
       <c r="F29">
-        <f>E29/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0055946111679077</v>
       </c>
       <c r="H29">
         <v>0.82999467849731445</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0082999467849731</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>1.002690284521238</v>
+      </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.27053356170654297</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>2.7053356170654297E-3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>2.6902845212379844E-3</v>
+      </c>
+      <c r="P29">
         <v>3.6556243896484379</v>
       </c>
-      <c r="L29">
-        <f>((1+I29)/(1+F29)) -1</f>
+      <c r="Q29">
+        <f t="shared" si="1"/>
         <v>1.3488945383084427E-3</v>
       </c>
-      <c r="M29">
-        <f>(1+E29)/(1+H29)</f>
+      <c r="R29">
+        <f t="shared" si="2"/>
         <v>0.85216702273217027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -4559,29 +5007,45 @@
         <v>0.62506198883056641</v>
       </c>
       <c r="F30">
-        <f>E30/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0062506198883057</v>
       </c>
       <c r="H30">
         <v>0.76000690460205078</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0076000690460205</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>1.0013410666597797</v>
+      </c>
       <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0.13494491577148438</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>1.3494491577148438E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>1.3410666597797327E-3</v>
+      </c>
+      <c r="P30">
         <v>2.5970101356506352</v>
       </c>
-      <c r="L30">
-        <f>((1+I30)/(1+F30)) -1</f>
+      <c r="Q30">
+        <f t="shared" si="1"/>
         <v>6.7262242530286009E-4</v>
       </c>
-      <c r="M30">
-        <f>(1+E30)/(1+H30)</f>
+      <c r="R30">
+        <f t="shared" si="2"/>
         <v>0.92332705319585306</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -4598,29 +5062,45 @@
         <v>-0.46044588088989258</v>
       </c>
       <c r="F31">
-        <f>E31/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>0.99539554119110107</v>
       </c>
       <c r="H31">
         <v>0.56999921798706055</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0056999921798706</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>1.0103521168845493</v>
+      </c>
       <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1.0304450988769531</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>1.0304450988769531E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>1.0352116884549289E-2</v>
+      </c>
+      <c r="P31">
         <v>8.7545871734619141</v>
       </c>
-      <c r="L31">
-        <f>((1+I31)/(1+F31)) -1</f>
+      <c r="Q31">
+        <f t="shared" si="1"/>
         <v>5.1641144705667497E-3</v>
       </c>
-      <c r="M31">
-        <f>(1+E31)/(1+H31)</f>
+      <c r="R31">
+        <f t="shared" si="2"/>
         <v>0.34366521519793158</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -4637,29 +5117,45 @@
         <v>0.94488859176635742</v>
       </c>
       <c r="F32">
-        <f>E32/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0094488859176636</v>
       </c>
       <c r="H32">
         <v>0.56000947952270508</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0056000947952271</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.9961872352566542</v>
+      </c>
       <c r="K32">
+        <f t="shared" si="4"/>
+        <v>-0.38487911224365234</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>-3.8487911224365234E-3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>-3.8127647433457978E-3</v>
+      </c>
+      <c r="P32">
         <v>6.8867206573486328E-2</v>
       </c>
-      <c r="L32">
-        <f>((1+I32)/(1+F32)) -1</f>
+      <c r="Q32">
+        <f t="shared" si="1"/>
         <v>-1.9153466153875032E-3</v>
       </c>
-      <c r="M32">
-        <f>(1+E32)/(1+H32)</f>
+      <c r="R32">
+        <f t="shared" si="2"/>
         <v>1.2467158804454244</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76">
         <v>40</v>
       </c>
@@ -4676,7 +5172,7 @@
         <v>0.26780366897583008</v>
       </c>
       <c r="F33">
-        <f>E33/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0026780366897583</v>
       </c>
       <c r="G33"/>
@@ -4684,23 +5180,40 @@
         <v>0.55999755859375</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0055999755859375</v>
       </c>
-      <c r="J33"/>
-      <c r="K33" s="74">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>1.0029141347364361</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0.29219388961791992</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>2.9219388961791992E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>2.9141347364360914E-3</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33" s="74">
         <v>2.0628929138183598</v>
       </c>
-      <c r="L33">
-        <f>((1+I33)/(1+F33)) -1</f>
+      <c r="Q33">
+        <f t="shared" si="1"/>
         <v>1.4590157991689612E-3</v>
       </c>
-      <c r="M33" s="74">
-        <f>(1+E33)/(1+H33)</f>
+      <c r="R33" s="74">
+        <f t="shared" si="2"/>
         <v>0.81269593147227981</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41</v>
       </c>
@@ -4717,26 +5230,60 @@
         <v>1.074302196502686</v>
       </c>
       <c r="F34">
-        <f>E34/100 + 1</f>
+        <f t="shared" si="0"/>
         <v>1.0107430219650269</v>
       </c>
       <c r="H34">
         <v>0.65000057220458984</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.0065000057220459</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.99580208208142562</v>
+      </c>
       <c r="K34">
+        <f t="shared" si="4"/>
+        <v>-0.42430162429809615</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>-4.2430162429809622E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>-4.1979179185743787E-3</v>
+      </c>
+      <c r="P34">
         <v>2.062904834747314</v>
       </c>
-      <c r="L34">
-        <f>((1+I34)/(1+F34)) -1</f>
+      <c r="Q34">
+        <f t="shared" si="1"/>
         <v>-2.1101733024214697E-3</v>
       </c>
-      <c r="M34">
+      <c r="R34">
         <f>(1+H34)/(1+E34) - 1</f>
         <v>-0.2045514993010551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f>_xlfn.STDEV.P(L2:L34)</f>
+        <v>1.8737959119737867E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f>_xlfn.STDEV.P(K2:K34)</f>
+        <v>1.8737959119737866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f>_xlfn.STDEV.P(J2:J34)</f>
+        <v>1.9821658782947508E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9123,6 +9670,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
     <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
@@ -9300,22 +9862,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1AD65E-F3B3-45C5-9FF1-5032F238063B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D18EFD-76C1-471C-806E-3057D7AA08D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC24A8F6-A27F-4822-A9E3-A03B45DEB73B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9331,21 +9895,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D18EFD-76C1-471C-806E-3057D7AA08D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1AD65E-F3B3-45C5-9FF1-5032F238063B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>